--- a/Dados-Tabela Inicial.xlsx
+++ b/Dados-Tabela Inicial.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Página2" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Página3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,65 +12,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="153">
   <si>
     <t>Matricula</t>
   </si>
   <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>AL_Nome</t>
+  </si>
+  <si>
+    <t>AL_Identidade/Nascimento</t>
+  </si>
+  <si>
+    <t>AL_Cpf</t>
+  </si>
+  <si>
+    <t>AL_Foto_3x4</t>
+  </si>
+  <si>
+    <t>AL_Cartão_Gvbus</t>
+  </si>
+  <si>
+    <t>AL_Comp_residencia</t>
+  </si>
+  <si>
+    <t>AL_Contrato_aluguel</t>
+  </si>
+  <si>
+    <t>AL_Declaracao_escolar</t>
+  </si>
+  <si>
+    <t>boleto_mensalidade</t>
+  </si>
+  <si>
+    <t>GF_declaracao_estudantes</t>
+  </si>
+  <si>
+    <t>GF_boletos_estudantes</t>
+  </si>
+  <si>
+    <t>GF_nascimento/identidade</t>
+  </si>
+  <si>
+    <t>GF_transferencia_renda</t>
+  </si>
+  <si>
+    <t>GF_medicação_cupom_fiscal/decalração_anexo</t>
+  </si>
+  <si>
+    <t>GF_medicação_receita</t>
+  </si>
+  <si>
+    <t>GF/AL_comprovante_rendimentos+16</t>
+  </si>
+  <si>
     <t>Aluno</t>
   </si>
   <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>AL_Nome</t>
-  </si>
-  <si>
-    <t>AL_Identidade/Nascimento</t>
-  </si>
-  <si>
-    <t>AL_Cpf</t>
-  </si>
-  <si>
-    <t>AL_Foto_3x4</t>
-  </si>
-  <si>
-    <t>AL_Cartão_Gvbus</t>
-  </si>
-  <si>
-    <t>AL_Comp_residencia</t>
-  </si>
-  <si>
-    <t>AL_Contrato_aluguel</t>
-  </si>
-  <si>
-    <t>AL_Declaracao_escolar</t>
-  </si>
-  <si>
-    <t>boleto_mensalidade</t>
-  </si>
-  <si>
-    <t>GF_declaracao_estudantes</t>
-  </si>
-  <si>
-    <t>GF_boletos_estudantes</t>
-  </si>
-  <si>
-    <t>GF_nascimento/identidade</t>
-  </si>
-  <si>
-    <t>GF_transferencia_renda</t>
-  </si>
-  <si>
-    <t>GF_medicação_cupom_fiscal/decalração_anexo</t>
-  </si>
-  <si>
-    <t>GF_medicação_receita</t>
-  </si>
-  <si>
-    <t>GF/AL_comprovante_rendimentos+16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matricula </t>
   </si>
   <si>
@@ -123,9 +122,6 @@
     <t>Tipo_Contato</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>Descrição_Contato</t>
   </si>
   <si>
@@ -213,9 +209,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Código_Estado</t>
-  </si>
-  <si>
     <t>Espirito Santo</t>
   </si>
   <si>
@@ -225,7 +218,7 @@
     <t>Cidade</t>
   </si>
   <si>
-    <t>Código_Cidade</t>
+    <t>FK_ID_Estado</t>
   </si>
   <si>
     <t>Vitória</t>
@@ -237,7 +230,7 @@
     <t>Bairro</t>
   </si>
   <si>
-    <t>Código_Bairro</t>
+    <t>FK_ID_Cidade</t>
   </si>
   <si>
     <t>Praia do Canto</t>
@@ -249,7 +242,7 @@
     <t>Rua</t>
   </si>
   <si>
-    <t>Código_Rua</t>
+    <t>FK_ID_Bairro</t>
   </si>
   <si>
     <t>rua sete</t>
@@ -261,82 +254,85 @@
     <t>Auxilio</t>
   </si>
   <si>
-    <t>Código_Auxílio</t>
+    <t>FK_Modalidade</t>
+  </si>
+  <si>
+    <t>FK_Aluno</t>
+  </si>
+  <si>
+    <t>Tipo_de_auxilio</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Moradia</t>
+  </si>
+  <si>
+    <t>Didatico</t>
   </si>
   <si>
     <t>Modalidade</t>
   </si>
   <si>
-    <t>FK - Aluno</t>
+    <t>FK_Tipo_de_auxilio</t>
   </si>
   <si>
     <t>GV1</t>
   </si>
   <si>
+    <t>Sistema Transcol</t>
+  </si>
+  <si>
+    <t>GV2</t>
+  </si>
+  <si>
+    <t>Sistema Transcol + 1 Passagem</t>
+  </si>
+  <si>
+    <t>GV3</t>
+  </si>
+  <si>
+    <t>Alunos que utilizam Intermunicipal</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Repasse Aluguel Mensal: 250 reais</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Repasse Aluguel Mensal: 350 reais</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Repasse Aluguel Mensal: 450 reais</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>Repasse para Única Refeicao Campus</t>
+  </si>
+  <si>
+    <t>AL2</t>
+  </si>
+  <si>
+    <t>Repasse para Duas Refeicao Campus</t>
+  </si>
+  <si>
     <t>DID</t>
   </si>
   <si>
-    <t>GV3</t>
-  </si>
-  <si>
-    <t>Tipo_de_auxilio</t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
-    <t>Moradia</t>
-  </si>
-  <si>
-    <t>Didatico</t>
-  </si>
-  <si>
-    <t>FK - Tipo_de_auxilio</t>
-  </si>
-  <si>
-    <t>Sistema Transcol</t>
-  </si>
-  <si>
-    <t>GV2</t>
-  </si>
-  <si>
-    <t>Sistema Transcol + 1 Passagem</t>
-  </si>
-  <si>
-    <t>Alunos que utilizam Intermunicipal</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Repasse Aluguel Mensal: 250 reais</t>
-  </si>
-  <si>
-    <t>Repasse Aluguel Mensal: 350 reais</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>Repasse Aluguel Mensal: 450 reais</t>
-  </si>
-  <si>
-    <t>AL1</t>
-  </si>
-  <si>
-    <t>Repasse para Única Refeicao Campus</t>
-  </si>
-  <si>
-    <t>AL2</t>
-  </si>
-  <si>
-    <t>Repasse para Duas Refeicao Campus</t>
+    <t>Concessão de cópias e repasse financeiro</t>
   </si>
   <si>
     <t>Documentos_Comprobatórios</t>
@@ -366,7 +362,7 @@
     <t>Detalhamento_Atividade</t>
   </si>
   <si>
-    <t>FK - Atividade</t>
+    <t>FK_Atividade</t>
   </si>
   <si>
     <t>Descrição_Atividade</t>
@@ -396,10 +392,10 @@
     <t>Evasão_Quadro_atividades</t>
   </si>
   <si>
-    <t>FK - Dia_Semana</t>
-  </si>
-  <si>
-    <t>FK - Detalhamento_Atividade</t>
+    <t>FK_Dia_Semana</t>
+  </si>
+  <si>
+    <t>FK_Detalhamento_Atividade</t>
   </si>
   <si>
     <t>Dia_Semana</t>
@@ -475,18 +471,6 @@
   </si>
   <si>
     <t>Assitência_Alunos_Pendencia_Documento</t>
-  </si>
-  <si>
-    <t>Documento_Pendente</t>
-  </si>
-  <si>
-    <t>cpf</t>
-  </si>
-  <si>
-    <t>rg</t>
-  </si>
-  <si>
-    <t>carteira de trabalho</t>
   </si>
 </sst>
 </file>
@@ -667,18 +651,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -780,6 +764,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -799,10 +786,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -838,66 +821,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="7"/>
@@ -1164,8 +1147,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1234,8 +1217,8 @@
         <v>10.0</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
@@ -1391,7 +1374,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
@@ -1405,16 +1388,16 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1422,13 +1405,13 @@
         <v>1.0</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -1436,18 +1419,18 @@
         <v>2.0</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="11"/>
     </row>
@@ -1456,17 +1439,17 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>1.0</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1474,7 +1457,7 @@
         <v>2.0</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1482,7 +1465,7 @@
         <v>3.0</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -1490,7 +1473,7 @@
         <v>4.0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
@@ -1498,16 +1481,16 @@
         <v>5.0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="18"/>
     </row>
     <row r="42">
       <c r="A42" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="11"/>
     </row>
@@ -1516,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
@@ -1524,7 +1507,7 @@
         <v>1.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -1532,15 +1515,15 @@
         <v>2.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="11"/>
@@ -1550,10 +1533,10 @@
         <v>20</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="49">
@@ -1613,20 +1596,20 @@
     </row>
     <row r="55">
       <c r="A55" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1637,7 +1620,7 @@
         <v>4.0</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -1653,7 +1636,7 @@
         <v>2.0</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1662,7 +1645,7 @@
         <v>3.0</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1671,12 +1654,12 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="26"/>
@@ -1685,35 +1668,35 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="8">
         <v>1.0</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="8">
         <v>2.0</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
@@ -1732,8 +1715,8 @@
       <c r="V66" s="26"/>
     </row>
     <row r="67">
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -1753,12 +1736,12 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
@@ -1778,16 +1761,16 @@
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
@@ -1797,7 +1780,7 @@
         <v>1.0</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="8">
         <v>1.0</v>
@@ -1810,7 +1793,7 @@
         <v>2.0</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="8">
         <v>2.0</v>
@@ -1830,7 +1813,7 @@
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -1840,13 +1823,13 @@
     </row>
     <row r="74">
       <c r="A74" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -1857,7 +1840,7 @@
         <v>1.0</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" s="8">
         <v>1.0</v>
@@ -1870,83 +1853,83 @@
         <v>2.0</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" s="8">
         <v>2.0</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
     </row>
     <row r="77">
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="3"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H79" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="H79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="8">
         <v>1.0</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="8">
         <v>1.0</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="8">
         <v>2.0</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="8">
         <v>2.0</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82">
-      <c r="F82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="F82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D84" s="18"/>
     </row>
@@ -1954,11 +1937,11 @@
       <c r="A85" s="1">
         <v>1.0</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>85</v>
+      <c r="B85" s="1">
+        <v>1.0</v>
       </c>
       <c r="C85" s="1">
-        <v>2015102.0</v>
+        <v>2.0151002E7</v>
       </c>
       <c r="D85" s="18"/>
     </row>
@@ -1966,11 +1949,11 @@
       <c r="A86" s="1">
         <v>2.0</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>86</v>
+      <c r="B86" s="1">
+        <v>5.0</v>
       </c>
       <c r="C86" s="1">
-        <v>2015102.0</v>
+        <v>2.0151002E7</v>
       </c>
       <c r="D86" s="18"/>
     </row>
@@ -1978,45 +1961,45 @@
       <c r="A87" s="1">
         <v>3.0</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>87</v>
+      <c r="B87" s="1">
+        <v>9.0</v>
       </c>
       <c r="C87" s="1">
-        <v>2015104.0</v>
+        <v>2.0151004E7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
         <v>4.0</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>86</v>
+      <c r="B88" s="1">
+        <v>5.0</v>
       </c>
       <c r="C88" s="1">
-        <v>2015108.0</v>
+        <v>2.0151008E7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
         <v>5.0</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>88</v>
+      <c r="B89" s="1">
+        <v>3.0</v>
       </c>
       <c r="C89" s="1">
-        <v>2015104.0</v>
+        <v>2.0151004E7</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90">
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B91" s="13"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="2"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92">
@@ -2033,9 +2016,9 @@
         <v>1.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="18"/>
     </row>
     <row r="94">
@@ -2043,16 +2026,16 @@
         <v>2.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="1">
         <v>3.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96">
@@ -2060,12 +2043,12 @@
         <v>4.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2079,10 +2062,10 @@
         <v>23</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E99" s="18"/>
     </row>
@@ -2091,10 +2074,10 @@
         <v>1.0</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D100" s="1">
         <v>1.0</v>
@@ -2105,10 +2088,10 @@
         <v>2.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D101" s="1">
         <v>1.0</v>
@@ -2119,10 +2102,10 @@
         <v>3.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D102" s="1">
         <v>1.0</v>
@@ -2133,10 +2116,10 @@
         <v>4.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D103" s="1">
         <v>3.0</v>
@@ -2147,10 +2130,10 @@
         <v>5.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D104" s="1">
         <v>3.0</v>
@@ -2161,10 +2144,10 @@
         <v>6.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D105" s="1">
         <v>3.0</v>
@@ -2175,10 +2158,10 @@
         <v>7.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D106" s="1">
         <v>2.0</v>
@@ -2189,10 +2172,10 @@
         <v>8.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D107" s="1">
         <v>2.0</v>
@@ -2203,16 +2186,18 @@
         <v>9.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D108" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="11"/>
     </row>
@@ -2221,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112">
@@ -2229,7 +2214,7 @@
         <v>2.0151001E7</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
@@ -2237,7 +2222,7 @@
         <v>2.0151002E7</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114">
@@ -2245,7 +2230,7 @@
         <v>2.0151003E7</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115">
@@ -2253,7 +2238,7 @@
         <v>2.0151004E7</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
@@ -2261,7 +2246,7 @@
         <v>2.0151005E7</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="18"/>
     </row>
@@ -2270,9 +2255,9 @@
         <v>2.0151006E7</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="C117" s="2"/>
     </row>
     <row r="118">
       <c r="C118" s="18"/>
@@ -2280,7 +2265,7 @@
     </row>
     <row r="119">
       <c r="A119" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="18"/>
       <c r="E119" s="18"/>
@@ -2290,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="18"/>
       <c r="E120" s="18"/>
@@ -2300,7 +2285,7 @@
         <v>1.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="18"/>
       <c r="E121" s="18"/>
@@ -2310,7 +2295,7 @@
         <v>2.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="18"/>
       <c r="E122" s="18"/>
@@ -2320,19 +2305,19 @@
         <v>3.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="18"/>
       <c r="E123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
+      <c r="A124" s="2"/>
       <c r="C124" s="18"/>
       <c r="E124" s="18"/>
     </row>
     <row r="125">
       <c r="A125" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -2341,16 +2326,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="C126" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="D126" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E126" s="18"/>
     </row>
@@ -2359,7 +2344,7 @@
         <v>1.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="8">
         <v>1.0</v>
@@ -2374,7 +2359,7 @@
         <v>2.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="8">
         <v>6.0</v>
@@ -2389,7 +2374,7 @@
         <v>3.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="8">
         <v>11.0</v>
@@ -2405,7 +2390,7 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="18"/>
@@ -2416,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="18"/>
       <c r="E132" s="18"/>
@@ -2477,20 +2462,20 @@
     </row>
     <row r="139">
       <c r="A139" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="11"/>
     </row>
     <row r="140">
       <c r="A140" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B140" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="C140" s="35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="141">
@@ -2565,7 +2550,7 @@
     </row>
     <row r="149">
       <c r="A149" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="38"/>
@@ -2575,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" s="38"/>
     </row>
@@ -2584,7 +2569,7 @@
         <v>1.0</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C151" s="38"/>
     </row>
@@ -2593,7 +2578,7 @@
         <v>2.0</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C152" s="38"/>
     </row>
@@ -2602,7 +2587,7 @@
         <v>3.0</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="38"/>
     </row>
@@ -2611,7 +2596,7 @@
         <v>4.0</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C154" s="38"/>
     </row>
@@ -2620,7 +2605,7 @@
         <v>5.0</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C155" s="38"/>
     </row>
@@ -2629,7 +2614,7 @@
         <v>6.0</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C156" s="38"/>
     </row>
@@ -2638,7 +2623,7 @@
         <v>7.0</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C157" s="38"/>
     </row>
@@ -2649,7 +2634,7 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="18"/>
@@ -2661,16 +2646,16 @@
         <v>22</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C160" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="1">
         <v>1.0</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
@@ -2678,7 +2663,7 @@
         <v>2.0</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
@@ -2686,7 +2671,7 @@
         <v>3.0</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
@@ -2694,7 +2679,7 @@
         <v>4.0</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165">
@@ -2702,26 +2687,26 @@
         <v>5.0</v>
       </c>
       <c r="B165" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="3"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="14" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B169" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="170">
@@ -2781,7 +2766,7 @@
     </row>
     <row r="176">
       <c r="A176" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B176" s="11"/>
     </row>
@@ -2790,7 +2775,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178">
@@ -2798,7 +2783,7 @@
         <v>1.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
@@ -2806,7 +2791,7 @@
         <v>2.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180">
@@ -2814,23 +2799,23 @@
         <v>3.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="C183" s="41" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C184" s="40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="185">
@@ -2882,73 +2867,75 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B192" s="43"/>
+      <c r="A192" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B192" s="44"/>
     </row>
     <row r="193">
-      <c r="A193" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>154</v>
+      <c r="A193" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="8">
         <v>2.0151001E7</v>
       </c>
-      <c r="B194" s="8" t="s">
-        <v>155</v>
+      <c r="B194" s="8">
+        <v>1.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="8">
         <v>2.0151002E7</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>156</v>
+      <c r="B195" s="8">
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="8">
         <v>2.0151003E7</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>157</v>
+      <c r="B196" s="8">
+        <v>3.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="8">
         <v>2.0151004E7</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>155</v>
+      <c r="B197" s="8">
+        <v>1.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="8">
         <v>2.0151005E7</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>156</v>
+      <c r="B198" s="8">
+        <v>2.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="8">
         <v>2.0151006E7</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>157</v>
+      <c r="B199" s="8">
+        <v>2.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="18"/>
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A98:D98"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="A141:A147"/>
     <mergeCell ref="A149:B149"/>
@@ -2957,38 +2944,25 @@
     <mergeCell ref="A139:C139"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A110:B110"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A57:A60"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Dados-Tabela Inicial.xlsx
+++ b/Dados-Tabela Inicial.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
   <si>
     <t>Matricula</t>
   </si>
   <si>
+    <t>Aluno</t>
+  </si>
+  <si>
     <t>Telefone</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>GF/AL_comprovante_rendimentos+16</t>
-  </si>
-  <si>
-    <t>Aluno</t>
   </si>
   <si>
     <t xml:space="preserve">Matricula </t>
@@ -658,12 +658,12 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,10 +673,10 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,306 +821,306 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1147,8 +1147,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1160,7 +1160,7 @@
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       <c r="A3" s="6">
         <v>2.0151001E7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>5.0</v>
       </c>
       <c r="D3" s="9"/>
@@ -1177,7 +1177,7 @@
       <c r="A4" s="6">
         <v>2.0151002E7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>6.0</v>
       </c>
       <c r="D4" s="9"/>
@@ -1186,7 +1186,7 @@
       <c r="A5" s="6">
         <v>2.0151003E7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>7.0</v>
       </c>
       <c r="D5" s="9"/>
@@ -1195,7 +1195,7 @@
       <c r="A6" s="6">
         <v>2.0151004E7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>8.0</v>
       </c>
       <c r="D6" s="9"/>
@@ -1204,7 +1204,7 @@
       <c r="A7" s="6">
         <v>2.0151005E7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>9.0</v>
       </c>
       <c r="D7" s="9"/>
@@ -1213,12 +1213,12 @@
       <c r="A8" s="6">
         <v>2.0151006E7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>10.0</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
@@ -1330,29 +1330,29 @@
       <c r="C22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>1.0</v>
       </c>
       <c r="B24" s="16">
         <v>34553.0</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>2.0</v>
       </c>
       <c r="B25" s="16">
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>3.0</v>
       </c>
       <c r="B26" s="16">
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
@@ -1387,44 +1387,44 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1441,14 +1441,14 @@
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>1.0</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       <c r="A36" s="1">
         <v>2.0</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="A37" s="1">
         <v>3.0</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       <c r="A38" s="1">
         <v>4.0</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       <c r="A39" s="1">
         <v>5.0</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="18"/>
     </row>
     <row r="42">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
@@ -1543,7 +1543,7 @@
       <c r="A49" s="1">
         <v>1.0</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>1.0</v>
       </c>
       <c r="C49" s="20">
@@ -1554,10 +1554,10 @@
       <c r="A50" s="1">
         <v>2.0</v>
       </c>
-      <c r="B50" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C50" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -1565,10 +1565,10 @@
       <c r="A51" s="1">
         <v>3.0</v>
       </c>
-      <c r="B51" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C51" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       <c r="A52" s="1">
         <v>4.0</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>1.0</v>
       </c>
       <c r="C52" s="20">
@@ -1587,10 +1587,10 @@
       <c r="A53" s="1">
         <v>5.0</v>
       </c>
-      <c r="B53" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C53" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -1602,24 +1602,30 @@
       <c r="C55" s="21"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="22">
+      <c r="A57" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B57" s="22">
         <v>5.0</v>
       </c>
-      <c r="B57" s="8">
+      <c r="C57" s="7">
         <v>4.0</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="18"/>
@@ -1631,31 +1637,43 @@
       <c r="K57" s="18"/>
     </row>
     <row r="58">
-      <c r="A58" s="23"/>
-      <c r="B58" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="23"/>
-      <c r="B59" s="8">
+      <c r="A59" s="3">
         <v>3.0</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="24"/>
-      <c r="B60" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="25" t="s">
@@ -1674,29 +1692,29 @@
         <v>43</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="A66" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
@@ -1715,8 +1733,8 @@
       <c r="V66" s="26"/>
     </row>
     <row r="67">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -1740,8 +1758,8 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
@@ -1760,42 +1778,42 @@
       <c r="V68" s="26"/>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
     </row>
     <row r="70">
-      <c r="A70" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>1.0</v>
       </c>
       <c r="G70" s="18"/>
       <c r="I70" s="18"/>
     </row>
     <row r="71">
-      <c r="A71" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>2.0</v>
       </c>
       <c r="D71" s="26"/>
@@ -1822,13 +1840,13 @@
       <c r="F73" s="26"/>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D74" s="18"/>
@@ -1836,34 +1854,34 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>1.0</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="C76" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77">
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
@@ -1872,47 +1890,47 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H80" s="2"/>
+      <c r="C80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="H81" s="2"/>
+      <c r="C81" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H81" s="3"/>
     </row>
     <row r="82">
-      <c r="F82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
@@ -1992,14 +2010,14 @@
       <c r="D89" s="4"/>
     </row>
     <row r="90">
-      <c r="D90" s="2"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B91" s="13"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92">
@@ -2018,7 +2036,7 @@
       <c r="B93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="18"/>
     </row>
     <row r="94">
@@ -2028,7 +2046,7 @@
       <c r="B94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="1">
@@ -2146,7 +2164,7 @@
       <c r="B105" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D105" s="1">
@@ -2210,54 +2228,54 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="8">
+      <c r="A113" s="7">
         <v>2.0151002E7</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="8">
+      <c r="A114" s="7">
         <v>2.0151003E7</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="8">
+      <c r="A115" s="7">
         <v>2.0151004E7</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="8">
+      <c r="A116" s="7">
         <v>2.0151005E7</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117">
-      <c r="A117" s="8">
+      <c r="A117" s="7">
         <v>2.0151006E7</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118">
       <c r="C118" s="18"/>
@@ -2311,7 +2329,7 @@
       <c r="E123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="2"/>
+      <c r="A124" s="3"/>
       <c r="C124" s="18"/>
       <c r="E124" s="18"/>
     </row>
@@ -2331,7 +2349,7 @@
       <c r="B126" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -2346,7 +2364,7 @@
       <c r="B127" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="7">
         <v>1.0</v>
       </c>
       <c r="D127" s="1">
@@ -2361,7 +2379,7 @@
       <c r="B128" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="7">
         <v>6.0</v>
       </c>
       <c r="D128" s="1">
@@ -2376,7 +2394,7 @@
       <c r="B129" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="7">
         <v>11.0</v>
       </c>
       <c r="D129" s="1">
@@ -2645,16 +2663,16 @@
       <c r="A160" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C160" s="2"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="1">
         <v>1.0</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2662,7 +2680,7 @@
       <c r="A162" s="1">
         <v>2.0</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2670,7 +2688,7 @@
       <c r="A163" s="1">
         <v>3.0</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2678,7 +2696,7 @@
       <c r="A164" s="1">
         <v>4.0</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2686,15 +2704,15 @@
       <c r="A165" s="1">
         <v>5.0</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2702,29 +2720,29 @@
       <c r="A169" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="8">
+      <c r="A170" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="B170" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C170" s="8">
+      <c r="B170" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C170" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="8">
+      <c r="A171" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="7">
         <v>2.0</v>
       </c>
       <c r="C171" s="40">
@@ -2732,10 +2750,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="8">
+      <c r="A172" s="7">
         <v>2.0151002E7</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="7">
         <v>3.0</v>
       </c>
       <c r="C172" s="40">
@@ -2743,21 +2761,21 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="8">
+      <c r="A173" s="7">
         <v>2.0151002E7</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173" s="7">
         <v>4.0</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="8">
+      <c r="A174" s="7">
         <v>2.0151003E7</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174" s="7">
         <v>5.0</v>
       </c>
       <c r="C174" s="40">
@@ -2811,7 +2829,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C184" s="40" t="s">
@@ -2819,50 +2837,50 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="8">
+      <c r="A185" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="7">
         <v>2.0151001E7</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="8">
+      <c r="A186" s="7">
         <v>2.0151002E7</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="7">
         <v>2.0151002E7</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="8">
+      <c r="A187" s="7">
         <v>2.0151003E7</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="7">
         <v>2.0151003E7</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="8">
+      <c r="A188" s="7">
         <v>2.0151004E7</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="7">
         <v>2.0151004E7</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="8">
+      <c r="A189" s="7">
         <v>2.0151005E7</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="7">
         <v>2.0151005E7</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="8">
+      <c r="A190" s="7">
         <v>2.0151006E7</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="7">
         <v>2.0151006E7</v>
       </c>
     </row>
@@ -2881,87 +2899,87 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="8">
+      <c r="A194" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="8">
+      <c r="A195" s="7">
         <v>2.0151002E7</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="8">
+      <c r="A196" s="7">
         <v>2.0151003E7</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="8">
+      <c r="A197" s="7">
         <v>2.0151004E7</v>
       </c>
-      <c r="B197" s="8">
+      <c r="B197" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="8">
+      <c r="A198" s="7">
         <v>2.0151005E7</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B198" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="8">
+      <c r="A199" s="7">
         <v>2.0151006E7</v>
       </c>
-      <c r="B199" s="8">
+      <c r="B199" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="18"/>
-      <c r="B230" s="2"/>
+      <c r="B230" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A141:A147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A176:B176"/>
     <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A83:C83"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="B57:B60"/>
     <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A141:A147"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A176:B176"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados-Tabela Inicial.xlsx
+++ b/Dados-Tabela Inicial.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+  <si>
+    <t>Aluno</t>
+  </si>
   <si>
     <t>Matricula</t>
-  </si>
-  <si>
-    <t>Aluno</t>
   </si>
   <si>
     <t>Telefone</t>
@@ -490,10 +490,10 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -655,36 +655,36 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -703,31 +703,31 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -736,31 +736,31 @@
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -817,310 +817,310 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1147,17 +1147,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1165,60 +1165,60 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2.0151001E7</v>
       </c>
       <c r="B3" s="7">
         <v>5.0</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2.0151002E7</v>
       </c>
       <c r="B4" s="7">
         <v>6.0</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0151003E7</v>
       </c>
       <c r="B5" s="7">
         <v>7.0</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2.0151004E7</v>
       </c>
       <c r="B6" s="7">
         <v>8.0</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.0151005E7</v>
       </c>
       <c r="B7" s="7">
         <v>9.0</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2.0151006E7</v>
       </c>
       <c r="B8" s="7">
         <v>10.0</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
@@ -1227,34 +1227,34 @@
       <c r="B10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>3.0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1267,58 +1267,58 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>2.0</v>
       </c>
       <c r="B19" s="14">
         <v>1.46459689E8</v>
       </c>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="2">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>3.0</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="2">
         <v>5.0</v>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       <c r="B25" s="16">
         <v>34554.0</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>2.0</v>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       <c r="B26" s="16">
         <v>34555.0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
@@ -1435,17 +1435,17 @@
       <c r="B33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>1.0</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>2.0</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1461,7 +1461,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>3.0</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>4.0</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>5.0</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="18"/>
     </row>
     <row r="42">
@@ -1495,31 +1495,31 @@
       <c r="B42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
@@ -1529,7 +1529,7 @@
       <c r="C47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>1.0</v>
       </c>
       <c r="B49" s="7">
@@ -1551,7 +1551,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>2.0</v>
       </c>
       <c r="B50" s="7">
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>3.0</v>
       </c>
       <c r="B51" s="7">
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>4.0</v>
       </c>
       <c r="B52" s="7">
@@ -1584,7 +1584,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>5.0</v>
       </c>
       <c r="B53" s="7">
@@ -1602,7 +1602,7 @@
       <c r="C55" s="21"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1616,7 +1616,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>1.0</v>
       </c>
       <c r="B57" s="22">
@@ -1637,7 +1637,7 @@
       <c r="K57" s="18"/>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>2.0</v>
       </c>
       <c r="B58" s="23"/>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>3.0</v>
       </c>
       <c r="B59" s="23"/>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>4.0</v>
       </c>
       <c r="B60" s="24"/>
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="25" t="s">
@@ -1685,15 +1685,15 @@
       <c r="E63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="7">
@@ -1703,8 +1703,8 @@
         <v>65</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="7">
@@ -1713,8 +1713,8 @@
       <c r="B66" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
@@ -1733,8 +1733,8 @@
       <c r="V66" s="26"/>
     </row>
     <row r="67">
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
@@ -1758,8 +1758,8 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
@@ -1787,8 +1787,8 @@
       <c r="C69" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
@@ -1863,8 +1863,8 @@
       <c r="C75" s="7">
         <v>1.0</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="7">
@@ -1876,12 +1876,12 @@
       <c r="C76" s="7">
         <v>2.0</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77">
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="17" t="s">
@@ -1890,7 +1890,7 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="3"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
@@ -1902,7 +1902,7 @@
       <c r="C79" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="7">
@@ -1914,7 +1914,7 @@
       <c r="C80" s="7">
         <v>1.0</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="7">
@@ -1926,11 +1926,11 @@
       <c r="C81" s="7">
         <v>2.0</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82">
-      <c r="F82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
@@ -1940,84 +1940,84 @@
       <c r="C83" s="13"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="18"/>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C85" s="1">
+      <c r="A85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C85" s="2">
         <v>2.0151002E7</v>
       </c>
       <c r="D85" s="18"/>
     </row>
     <row r="86">
-      <c r="A86" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B86" s="1">
+      <c r="A86" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B86" s="2">
         <v>5.0</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>2.0151002E7</v>
       </c>
       <c r="D86" s="18"/>
     </row>
     <row r="87">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>3.0</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>9.0</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>2.0151004E7</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>4.0</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>5.0</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>2.0151008E7</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>5.0</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>3.0</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>2.0151004E7</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90">
-      <c r="D90" s="3"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B91" s="13"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="4"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92">
@@ -2030,37 +2030,37 @@
       <c r="F92" s="18"/>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="18"/>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>3.0</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>4.0</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2073,16 +2073,16 @@
       <c r="D98" s="13"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E99" s="18"/>
@@ -2097,7 +2097,7 @@
       <c r="C100" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2105,13 +2105,13 @@
       <c r="A101" s="27">
         <v>2.0</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2119,13 +2119,13 @@
       <c r="A102" s="27">
         <v>3.0</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C102" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2133,13 +2133,13 @@
       <c r="A103" s="27">
         <v>4.0</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C103" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -2147,13 +2147,13 @@
       <c r="A104" s="27">
         <v>5.0</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -2161,13 +2161,13 @@
       <c r="A105" s="27">
         <v>6.0</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -2175,13 +2175,13 @@
       <c r="A106" s="27">
         <v>7.0</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -2189,13 +2189,13 @@
       <c r="A107" s="27">
         <v>8.0</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -2203,13 +2203,13 @@
       <c r="A108" s="27">
         <v>9.0</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>4.0</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="111">
       <c r="A111" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>108</v>
@@ -2275,7 +2275,7 @@
       <c r="B117" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118">
       <c r="C118" s="18"/>
@@ -2299,37 +2299,37 @@
       <c r="E120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="A121" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="18"/>
       <c r="E121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="A122" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C122" s="18"/>
       <c r="E122" s="18"/>
     </row>
     <row r="123">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>3.0</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C123" s="18"/>
       <c r="E123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
+      <c r="A124" s="4"/>
       <c r="C124" s="18"/>
       <c r="E124" s="18"/>
     </row>
@@ -2343,7 +2343,7 @@
       <c r="E125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="32" t="s">
@@ -2352,52 +2352,52 @@
       <c r="C126" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E126" s="18"/>
     </row>
     <row r="127">
-      <c r="A127" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="A127" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C127" s="7">
         <v>1.0</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>5.0</v>
       </c>
       <c r="E127" s="18"/>
     </row>
     <row r="128">
-      <c r="A128" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="A128" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C128" s="7">
         <v>6.0</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>9.0</v>
       </c>
       <c r="E128" s="18"/>
     </row>
     <row r="129">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>3.0</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C129" s="7">
         <v>11.0</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>19.0</v>
       </c>
       <c r="E129" s="18"/>
@@ -2415,17 +2415,17 @@
       <c r="E131" s="18"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C132" s="18"/>
       <c r="E132" s="18"/>
     </row>
     <row r="133">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>1.0</v>
       </c>
       <c r="B133" s="33">
@@ -2435,7 +2435,7 @@
       <c r="E133" s="18"/>
     </row>
     <row r="134">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>2.0</v>
       </c>
       <c r="B134" s="33">
@@ -2445,7 +2445,7 @@
       <c r="E134" s="18"/>
     </row>
     <row r="135">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>3.0</v>
       </c>
       <c r="B135" s="33">
@@ -2455,7 +2455,7 @@
       <c r="E135" s="18"/>
     </row>
     <row r="136">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>23.0</v>
       </c>
       <c r="B136" s="33">
@@ -2465,7 +2465,7 @@
       <c r="E136" s="18"/>
     </row>
     <row r="137">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>24.0</v>
       </c>
       <c r="B137" s="33">
@@ -2486,78 +2486,102 @@
       <c r="C139" s="11"/>
     </row>
     <row r="140">
-      <c r="A140" s="35" t="s">
+      <c r="A140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="C140" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="D140" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="36">
+      <c r="A141" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B141" s="36">
         <v>2.0151001E7</v>
       </c>
-      <c r="B141" s="35">
-        <v>1.0</v>
-      </c>
       <c r="C141" s="35">
         <v>1.0</v>
       </c>
+      <c r="D141" s="35">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="23"/>
-      <c r="B142" s="35">
-        <v>1.0</v>
-      </c>
+      <c r="A142" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B142" s="23"/>
       <c r="C142" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="D142" s="35">
         <v>2.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="23"/>
-      <c r="B143" s="35">
+      <c r="A143" s="4">
         <v>3.0</v>
       </c>
+      <c r="B143" s="23"/>
       <c r="C143" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="D143" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="23"/>
-      <c r="B144" s="35">
+      <c r="A144" s="4">
         <v>4.0</v>
       </c>
+      <c r="B144" s="23"/>
       <c r="C144" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="D144" s="35">
         <v>3.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23"/>
-      <c r="B145" s="35">
-        <v>2.0</v>
-      </c>
+      <c r="A145" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B145" s="23"/>
       <c r="C145" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="D145" s="35">
         <v>3.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="23"/>
-      <c r="B146" s="35">
+      <c r="A146" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B146" s="23"/>
+      <c r="C146" s="35">
         <v>5.0</v>
       </c>
-      <c r="C146" s="35">
+      <c r="D146" s="35">
         <v>3.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="24"/>
-      <c r="B147" s="35">
+      <c r="A147" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B147" s="24"/>
+      <c r="C147" s="35">
         <v>6.0</v>
       </c>
-      <c r="C147" s="35">
+      <c r="D147" s="35">
         <v>1.0</v>
       </c>
     </row>
@@ -2574,7 +2598,7 @@
       <c r="C149" s="38"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B150" s="35" t="s">
@@ -2583,7 +2607,7 @@
       <c r="C150" s="38"/>
     </row>
     <row r="151">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>1.0</v>
       </c>
       <c r="B151" s="35" t="s">
@@ -2592,7 +2616,7 @@
       <c r="C151" s="38"/>
     </row>
     <row r="152">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>2.0</v>
       </c>
       <c r="B152" s="35" t="s">
@@ -2601,7 +2625,7 @@
       <c r="C152" s="38"/>
     </row>
     <row r="153">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>3.0</v>
       </c>
       <c r="B153" s="35" t="s">
@@ -2610,7 +2634,7 @@
       <c r="C153" s="38"/>
     </row>
     <row r="154">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>4.0</v>
       </c>
       <c r="B154" s="35" t="s">
@@ -2619,7 +2643,7 @@
       <c r="C154" s="38"/>
     </row>
     <row r="155">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>5.0</v>
       </c>
       <c r="B155" s="35" t="s">
@@ -2628,7 +2652,7 @@
       <c r="C155" s="38"/>
     </row>
     <row r="156">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>6.0</v>
       </c>
       <c r="B156" s="35" t="s">
@@ -2637,7 +2661,7 @@
       <c r="C156" s="38"/>
     </row>
     <row r="157">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>7.0</v>
       </c>
       <c r="B157" s="35" t="s">
@@ -2660,16 +2684,16 @@
       <c r="E159" s="18"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>1.0</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -2677,7 +2701,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>2.0</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -2685,7 +2709,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>3.0</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -2693,7 +2717,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>4.0</v>
       </c>
       <c r="B164" s="7" t="s">
@@ -2701,7 +2725,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>5.0</v>
       </c>
       <c r="B165" s="7" t="s">
@@ -2709,76 +2733,94 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3"/>
+      <c r="A166" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="7">
+      <c r="A170" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B170" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="B170" s="7">
-        <v>1.0</v>
-      </c>
       <c r="C170" s="7">
         <v>1.0</v>
       </c>
+      <c r="D170" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="7">
+      <c r="A171" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B171" s="7">
         <v>2.0151001E7</v>
       </c>
-      <c r="B171" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C171" s="40">
+      <c r="C171" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D171" s="40">
         <v>2.0</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="7">
+      <c r="A172" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B172" s="7">
         <v>2.0151002E7</v>
       </c>
-      <c r="B172" s="7">
+      <c r="C172" s="7">
         <v>3.0</v>
       </c>
-      <c r="C172" s="40">
+      <c r="D172" s="40">
         <v>3.0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="7">
+      <c r="A173" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B173" s="7">
         <v>2.0151002E7</v>
-      </c>
-      <c r="B173" s="7">
-        <v>4.0</v>
       </c>
       <c r="C173" s="7">
         <v>4.0</v>
       </c>
+      <c r="D173" s="7">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="7">
+      <c r="A174" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B174" s="7">
         <v>2.0151003E7</v>
       </c>
-      <c r="B174" s="7">
+      <c r="C174" s="7">
         <v>5.0</v>
       </c>
-      <c r="C174" s="40">
+      <c r="D174" s="40">
         <v>5.0</v>
       </c>
     </row>
@@ -2789,34 +2831,34 @@
       <c r="B176" s="11"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="A178" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B179" s="1" t="s">
+      <c r="A179" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>3.0</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2891,10 +2933,10 @@
       <c r="B192" s="44"/>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2948,7 +2990,7 @@
     </row>
     <row r="230">
       <c r="A230" s="18"/>
-      <c r="B230" s="3"/>
+      <c r="B230" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2975,11 +3017,11 @@
     <mergeCell ref="A125:D125"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A141:A147"/>
     <mergeCell ref="A168:C168"/>
     <mergeCell ref="A192:B192"/>
     <mergeCell ref="A139:C139"/>
     <mergeCell ref="A176:B176"/>
+    <mergeCell ref="B141:B147"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
